--- a/simen account.xlsx
+++ b/simen account.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED179656-E907-433E-B50D-2F82DD9C6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F91D1937-0A6A-44B5-9E94-8FE53146F303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F96B955C-89FA-484F-A198-8AFFD04F8296}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -151,6 +158,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +584,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,8 +595,8 @@
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
